--- a/Necessary_Files/muni_shortnames.xlsx
+++ b/Necessary_Files/muni_shortnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\ptax\Necessary_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9F7E6-9ECF-4C5C-9623-1552D986E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D53708-1436-4F7E-B64C-928AC62231D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E04B2839-4174-4D46-99FA-03AE29BCB57B}"/>
+    <workbookView xWindow="-20610" yWindow="9030" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{E04B2839-4174-4D46-99FA-03AE29BCB57B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1937,7 +1937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5716,7 +5716,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{61DE8FDD-09E4-4DE0-83C3-F9F65B2526A6}" name="Table16" displayName="Table16" ref="A1:L135" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:L135" xr:uid="{61DE8FDD-09E4-4DE0-83C3-F9F65B2526A6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L135">
-    <sortCondition ref="A1:A135"/>
+    <sortCondition descending="1" ref="J1:J135"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7EF7EC81-4E0E-4169-9FAC-1A8F297BFBE2}" name="agency_number" dataDxfId="23"/>
@@ -5778,7 +5778,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9257A8D-495E-48AE-B7F2-3A818F920A13}" name="Table2" displayName="Table2" ref="A1:I40" totalsRowShown="0">
   <autoFilter ref="A1:I40" xr:uid="{F9257A8D-495E-48AE-B7F2-3A818F920A13}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
-    <sortCondition ref="B1:B40"/>
+    <sortCondition descending="1" ref="E1:E40"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{46A8DEB6-8064-4770-89AB-DEC26DD32F1E}" name="OBJECTID"/>
@@ -6094,7 +6094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B4136-5499-4584-8CDE-B5921A95B643}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="63" workbookViewId="0">
+    <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
@@ -9224,7 +9224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7740414F-9570-405C-A0F0-4D145593E344}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="40" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -9269,59 +9269,59 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A2" s="3">
-        <v>20060000</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="3">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="A2" s="5">
+        <v>30010000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="5">
         <v>15</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="5">
+        <v>39</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A3" s="5">
-        <v>30010000</v>
+        <v>30230000</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="G3" s="5">
         <v>15</v>
@@ -9341,255 +9341,253 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A4" s="3">
-        <v>30020000</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J4" s="3">
-        <v>38</v>
-      </c>
-      <c r="K4" s="4"/>
+      <c r="A4" s="5">
+        <v>30390000</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="5">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6"/>
       <c r="L4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A5" s="5">
-        <v>30030000</v>
+        <v>30590000</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G5" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="J5" s="5">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A6" s="3">
-        <v>30040000</v>
+        <v>30780000</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="G6" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="J6" s="14">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A7" s="5">
-        <v>30050000</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="5">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="J7" s="5">
-        <v>18</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>425</v>
-      </c>
+      <c r="A7" s="3">
+        <v>30910000</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="3">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="3">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A8" s="3">
-        <v>30060000</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" s="3">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J8" s="3">
-        <v>36</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="A8" s="5">
+        <v>31350000</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="5">
+        <v>39</v>
+      </c>
+      <c r="K8" s="6"/>
       <c r="L8">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A9" s="5">
-        <v>30070000</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="A9" s="3">
+        <v>30020000</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J9" s="5">
-        <v>31</v>
-      </c>
-      <c r="K9" s="6"/>
+      <c r="D9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" s="3">
+        <v>38</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A10" s="3">
-        <v>30080000</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="A10" s="5">
+        <v>30150000</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="J10" s="3">
-        <v>20</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="5">
+        <v>38</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>425</v>
       </c>
       <c r="L10">
@@ -9597,181 +9595,179 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A11" s="5">
-        <v>30090000</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="5">
-        <v>3</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J11" s="5">
-        <v>31</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="A11" s="3">
+        <v>31040000</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J11" s="3">
+        <v>38</v>
+      </c>
+      <c r="K11" s="4"/>
       <c r="L11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A12" s="3">
-        <v>30100000</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="3">
-        <v>35</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J12" s="3">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4"/>
+      <c r="A12" s="5">
+        <v>31310000</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" s="5">
+        <v>38</v>
+      </c>
+      <c r="K12" s="6"/>
       <c r="L12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A13" s="5">
-        <v>30110000</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="5">
-        <v>14</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="J13" s="5">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>421</v>
-      </c>
+      <c r="A13" s="3">
+        <v>30170000</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="3">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" s="3">
+        <v>37</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13">
         <v>2020</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A14" s="3">
-        <v>30120000</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="3">
-        <v>43</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J14" s="3">
-        <v>21</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="A14" s="5">
+        <v>30190000</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="5">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14" s="5">
+        <v>37</v>
+      </c>
+      <c r="K14" s="6"/>
       <c r="L14">
         <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A15" s="5">
-        <v>30130000</v>
+        <v>30300000</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G15" s="5">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="J15" s="5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15">
@@ -9780,134 +9776,130 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A16" s="3">
-        <v>30140000</v>
+        <v>30310000</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="J16" s="3">
-        <v>31</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>373</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K16" s="4"/>
       <c r="L16">
         <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A17" s="5">
-        <v>30150000</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="J17" s="5">
-        <v>38</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>425</v>
-      </c>
+      <c r="A17" s="3">
+        <v>30330000</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="3">
+        <v>39</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J17" s="3">
+        <v>37</v>
+      </c>
+      <c r="K17" s="4"/>
       <c r="L17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A18" s="3">
-        <v>30160000</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="3">
-        <v>34</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J18" s="3">
-        <v>36</v>
-      </c>
-      <c r="K18" s="4"/>
+      <c r="A18" s="5">
+        <v>30510000</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="5">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J18" s="5">
+        <v>37</v>
+      </c>
+      <c r="K18" s="6"/>
       <c r="L18">
         <v>2020</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A19" s="3">
-        <v>30170000</v>
+        <v>30600000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="G19" s="3">
         <v>39</v>
@@ -9928,248 +9920,250 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A20" s="5">
-        <v>30180000</v>
+        <v>30680000</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G20" s="5">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="J20" s="5">
-        <v>21</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K20" s="6"/>
       <c r="L20">
         <v>2020</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A21" s="5">
-        <v>30190000</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="3">
+        <v>31020000</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="3">
+        <v>39</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J21" s="3">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="5">
-        <v>39</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J21" s="5">
-        <v>37</v>
-      </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="4"/>
       <c r="L21">
         <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A22" s="3">
-        <v>30200000</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="5">
+        <v>31080000</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" s="5">
         <v>39</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="3">
-        <v>14</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14</v>
-      </c>
-      <c r="K22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J22" s="5">
+        <v>37</v>
+      </c>
+      <c r="K22" s="6"/>
       <c r="L22">
         <v>2020</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A23" s="3">
-        <v>30210000</v>
+        <v>31200000</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>383</v>
+      </c>
+      <c r="G23" s="3">
+        <v>39</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="6"/>
+        <v>389</v>
+      </c>
+      <c r="J23" s="3">
+        <v>37</v>
+      </c>
+      <c r="K23" s="4"/>
       <c r="L23">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A24" s="5">
-        <v>30220000</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G24" s="5">
-        <v>28</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="J24" s="5">
-        <v>12</v>
-      </c>
-      <c r="K24" s="6"/>
+      <c r="A24" s="3">
+        <v>31260000</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G24" s="3">
+        <v>39</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J24" s="3">
+        <v>37</v>
+      </c>
+      <c r="K24" s="4"/>
       <c r="L24">
         <v>2020</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A25" s="5">
-        <v>30230000</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="5">
-        <v>15</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" s="5">
-        <v>39</v>
-      </c>
-      <c r="K25" s="6"/>
+      <c r="A25" s="3">
+        <v>30060000</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="3">
+        <v>34</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J25" s="3">
+        <v>36</v>
+      </c>
+      <c r="K25" s="4"/>
       <c r="L25">
         <v>2020</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A26" s="3">
-        <v>30240000</v>
+        <v>30160000</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G26" s="3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="J26" s="3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26">
@@ -10178,34 +10172,34 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A27" s="5">
-        <v>30250000</v>
+        <v>30430000</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>279</v>
+        <v>430</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>279</v>
+        <v>430</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="G27" s="5">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="J27" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27">
@@ -10214,34 +10208,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A28" s="3">
-        <v>30260000</v>
+        <v>31220000</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="G28" s="3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="J28" s="3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28">
@@ -10249,71 +10243,71 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A29" s="5">
-        <v>30270000</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="A29" s="3">
+        <v>30580000</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="3">
+        <v>23</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J29" s="5">
-        <v>29</v>
-      </c>
-      <c r="K29" s="6"/>
+      <c r="I29" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" s="3">
+        <v>35</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29">
         <v>2019</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A30" s="3">
-        <v>30280000</v>
+        <v>31120000</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="G30" s="3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>410</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="J30" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>425</v>
@@ -10323,107 +10317,107 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A31" s="3">
-        <v>30290000</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="3">
-        <v>16</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="A31" s="5">
+        <v>31150000</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" s="5">
+        <v>23</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="J31" s="3">
-        <v>22</v>
-      </c>
-      <c r="K31" s="4"/>
+      <c r="I31" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J31" s="5">
+        <v>35</v>
+      </c>
+      <c r="K31" s="6"/>
       <c r="L31">
         <v>2019</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A32" s="5">
-        <v>30300000</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" s="5">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J32" s="5">
+      <c r="A32" s="3">
+        <v>30860000</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" s="3">
         <v>37</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="H32" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J32" s="3">
+        <v>34</v>
+      </c>
+      <c r="K32" s="4"/>
       <c r="L32">
         <v>2020</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A33" s="3">
-        <v>30310000</v>
+        <v>31090000</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="G33" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="J33" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33">
@@ -10432,72 +10426,70 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A34" s="5">
-        <v>30320000</v>
+        <v>31060000</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="G34" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="3">
-        <v>10</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="J34" s="5">
+        <v>33</v>
+      </c>
+      <c r="K34" s="6"/>
       <c r="L34">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A35" s="3">
-        <v>30330000</v>
+        <v>30400000</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="G35" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="J35" s="3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35">
@@ -10505,205 +10497,207 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A36" s="5">
-        <v>30340000</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G36" s="5">
-        <v>26</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="J36" s="5">
-        <v>18</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="A36" s="3">
+        <v>30440000</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="3">
+        <v>42</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J36" s="3">
+        <v>32</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>425</v>
       </c>
       <c r="L36">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A37" s="5">
-        <v>30350000</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G37" s="5">
-        <v>40</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="J37" s="5">
-        <v>16</v>
-      </c>
-      <c r="K37" s="6"/>
+      <c r="A37" s="3">
+        <v>30740000</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="3">
+        <v>42</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J37" s="3">
+        <v>32</v>
+      </c>
+      <c r="K37" s="4"/>
       <c r="L37">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A38" s="3">
-        <v>30370000</v>
+        <v>30930000</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="G38" s="3">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J38" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A39" s="3">
-        <v>30380000</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39" s="3">
-        <v>12</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J39" s="3">
-        <v>17</v>
-      </c>
-      <c r="K39" s="4"/>
+      <c r="A39" s="5">
+        <v>31000000</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" s="5">
+        <v>42</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J39" s="5">
+        <v>32</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="L39">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A40" s="5">
-        <v>30390000</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G40" s="5">
-        <v>15</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J40" s="5">
-        <v>39</v>
-      </c>
-      <c r="K40" s="6"/>
+      <c r="A40" s="3">
+        <v>31050000</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="3">
+        <v>42</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J40" s="3">
+        <v>32</v>
+      </c>
+      <c r="K40" s="4"/>
       <c r="L40">
         <v>2020</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A41" s="3">
-        <v>30400000</v>
+        <v>31280000</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="G41" s="3">
         <v>42</v>
@@ -10717,41 +10711,43 @@
       <c r="J41" s="3">
         <v>32</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="L41">
         <v>2020</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A42" s="5">
-        <v>30410000</v>
+        <v>30070000</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G42" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J42" s="5">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42">
@@ -10759,71 +10755,71 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A43" s="3">
-        <v>30420000</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="A43" s="5">
+        <v>30090000</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="5">
         <v>3</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="H43" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="5">
         <v>31</v>
       </c>
-      <c r="K43" s="4"/>
+      <c r="K43" s="6"/>
       <c r="L43">
         <v>2020</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A44" s="5">
-        <v>30430000</v>
+        <v>30130000</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="G44" s="5">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="J44" s="5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44">
@@ -10832,362 +10828,360 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A45" s="3">
-        <v>30440000</v>
+        <v>30140000</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G45" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J45" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="L45">
         <v>2020</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A46" s="5">
-        <v>30450000</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G46" s="5">
-        <v>20</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="J46" s="5">
-        <v>20</v>
-      </c>
-      <c r="K46" s="6"/>
+      <c r="A46" s="3">
+        <v>30420000</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J46" s="3">
+        <v>31</v>
+      </c>
+      <c r="K46" s="4"/>
       <c r="L46">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A47" s="3">
-        <v>30460000</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G47" s="3">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="J47" s="3">
-        <v>23</v>
-      </c>
-      <c r="K47" s="4"/>
+      <c r="A47" s="5">
+        <v>30550000</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" s="5">
+        <v>31</v>
+      </c>
+      <c r="K47" s="6"/>
       <c r="L47">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A48" s="5">
-        <v>30470000</v>
+        <v>30750000</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="G48" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="J48" s="5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A49" s="3">
-        <v>30480000</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G49" s="3">
-        <v>28</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>418</v>
+      <c r="A49" s="5">
+        <v>30770000</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="J49" s="5">
-        <v>12</v>
-      </c>
-      <c r="K49" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="K49" s="6"/>
       <c r="L49">
         <v>2020</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A50" s="5">
-        <v>30490000</v>
+        <v>31230000</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="G50" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="J50" s="5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A51" s="3">
-        <v>30500000</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G51" s="3">
-        <v>43</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J51" s="3">
-        <v>21</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="A51" s="5">
+        <v>31290000</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" s="5">
+        <v>3</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" s="5">
+        <v>31</v>
+      </c>
+      <c r="K51" s="6"/>
       <c r="L51">
         <v>2020</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A52" s="5">
-        <v>30510000</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G52" s="5">
-        <v>39</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J52" s="5">
-        <v>37</v>
-      </c>
-      <c r="K52" s="6"/>
+      <c r="A52" s="3">
+        <v>30540000</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" s="3">
+        <v>18</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J52" s="3">
+        <v>30</v>
+      </c>
+      <c r="K52" s="4"/>
       <c r="L52">
         <v>2020</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A53" s="5">
-        <v>30520000</v>
+        <v>30970000</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G53" s="5">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="G53" s="3">
+        <v>18</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J53" s="5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A54" s="3">
-        <v>30530000</v>
+        <v>30980000</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>398</v>
+        <v>289</v>
       </c>
       <c r="G54" s="3">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J54" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54">
@@ -11196,22 +11190,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A55" s="3">
-        <v>30540000</v>
+        <v>30990000</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="G55" s="3">
         <v>18</v>
@@ -11232,546 +11226,546 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A56" s="5">
-        <v>30550000</v>
+        <v>30270000</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G56" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="J56" s="5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A57" s="3">
-        <v>30560000</v>
+        <v>30630000</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G57" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="J57" s="3">
-        <v>21</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>425</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K57" s="4"/>
       <c r="L57">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A58" s="5">
-        <v>30570000</v>
+        <v>30960000</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="G58" s="5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="J58" s="5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A59" s="3">
-        <v>30580000</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G59" s="3">
-        <v>23</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="A59" s="5">
+        <v>31110000</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J59" s="3">
-        <v>35</v>
-      </c>
-      <c r="K59" s="4"/>
+      <c r="I59" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J59" s="5">
+        <v>29</v>
+      </c>
+      <c r="K59" s="6"/>
       <c r="L59">
         <v>2019</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A60" s="5">
-        <v>30585000</v>
+        <v>30940000</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="G60" s="5">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="J60" s="5">
-        <v>21</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K60" s="6"/>
       <c r="L60">
         <v>2020</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A61" s="5">
-        <v>30590000</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G61" s="5">
-        <v>15</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J61" s="5">
-        <v>39</v>
-      </c>
-      <c r="K61" s="6"/>
+      <c r="A61" s="3">
+        <v>30950000</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" s="3">
+        <v>28</v>
+      </c>
+      <c r="K61" s="4"/>
       <c r="L61">
         <v>2020</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A62" s="3">
-        <v>30600000</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G62" s="3">
-        <v>39</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J62" s="3">
-        <v>37</v>
-      </c>
-      <c r="K62" s="4"/>
+      <c r="A62" s="5">
+        <v>30920000</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G62" s="5">
+        <v>32</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="J62" s="5">
+        <v>27</v>
+      </c>
+      <c r="K62" s="6"/>
       <c r="L62">
         <v>2020</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A63" s="5">
-        <v>30610000</v>
+        <v>30520000</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G63" s="5">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="J63" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A64" s="3">
-        <v>30630000</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="A64" s="5">
+        <v>30840000</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G64" s="5">
+        <v>10</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="J64" s="3">
-        <v>29</v>
-      </c>
-      <c r="K64" s="4"/>
+      <c r="I64" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="J64" s="5">
+        <v>26</v>
+      </c>
+      <c r="K64" s="6"/>
       <c r="L64">
         <v>2019</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A65" s="5">
-        <v>30640000</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G65" s="5">
-        <v>43</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="J65" s="5">
-        <v>21</v>
-      </c>
-      <c r="K65" s="6"/>
+      <c r="A65" s="3">
+        <v>30280000</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G65" s="3">
+        <v>7</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J65" s="3">
+        <v>25</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="L65">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A66" s="3">
-        <v>30650000</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
+      <c r="A66" s="5">
+        <v>30470000</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="5">
+        <v>7</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="J66" s="3">
-        <v>23</v>
-      </c>
-      <c r="K66" s="4"/>
+      <c r="I66" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J66" s="5">
+        <v>25</v>
+      </c>
+      <c r="K66" s="6"/>
       <c r="L66">
         <v>2019</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A67" s="5">
-        <v>30660000</v>
+        <v>30870000</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G67" s="5">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="J67" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A68" s="3">
-        <v>30670000</v>
+        <v>30880000</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G68" s="3">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="J68" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A69" s="5">
-        <v>30680000</v>
+        <v>30890000</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="G69" s="5">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="J69" s="5">
-        <v>37</v>
-      </c>
-      <c r="K69" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="L69">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A70" s="3">
-        <v>30690000</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="3">
-        <v>25</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J70" s="3">
-        <v>19</v>
-      </c>
-      <c r="K70" s="4"/>
+      <c r="A70" s="5">
+        <v>30490000</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G70" s="5">
+        <v>13</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" s="5">
+        <v>24</v>
+      </c>
+      <c r="K70" s="6"/>
       <c r="L70">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.8">
@@ -11812,1084 +11806,1090 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A72" s="3">
-        <v>30710000</v>
+        <v>30810000</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G72" s="5">
-        <v>28</v>
+        <v>353</v>
+      </c>
+      <c r="G72" s="3">
+        <v>13</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J72" s="5">
-        <v>12</v>
+        <v>354</v>
+      </c>
+      <c r="J72" s="3">
+        <v>24</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A73" s="5">
-        <v>30720000</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G73" s="5">
-        <v>43</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="J73" s="5">
-        <v>21</v>
-      </c>
-      <c r="K73" s="6"/>
+      <c r="A73" s="3">
+        <v>30830000</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G73" s="3">
+        <v>13</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J73" s="3">
+        <v>24</v>
+      </c>
+      <c r="K73" s="4"/>
       <c r="L73">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A74" s="3">
-        <v>30730000</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G74" s="3">
-        <v>41</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="J74" s="3">
+      <c r="A74" s="5">
+        <v>31170000</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G74" s="5">
         <v>13</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="H74" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J74" s="5">
+        <v>24</v>
+      </c>
+      <c r="K74" s="6"/>
       <c r="L74">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A75" s="3">
-        <v>30740000</v>
+        <v>30460000</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="G75" s="3">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J75" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A76" s="5">
-        <v>30750000</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G76" s="5">
-        <v>3</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J76" s="5">
-        <v>31</v>
-      </c>
-      <c r="K76" s="6"/>
+      <c r="A76" s="3">
+        <v>30650000</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76" s="3">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J76" s="3">
+        <v>23</v>
+      </c>
+      <c r="K76" s="4"/>
       <c r="L76">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A77" s="3">
-        <v>30760000</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G77" s="3">
-        <v>43</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J77" s="3">
-        <v>21</v>
-      </c>
-      <c r="K77" s="4"/>
+      <c r="A77" s="5">
+        <v>31330000</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G77" s="5">
+        <v>8</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J77" s="5">
+        <v>23</v>
+      </c>
+      <c r="K77" s="6"/>
       <c r="L77">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A78" s="5">
-        <v>30770000</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="5">
-        <v>3</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="J78" s="5">
-        <v>31</v>
-      </c>
-      <c r="K78" s="6"/>
+      <c r="A78" s="3">
+        <v>31340000</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="3">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J78" s="3">
+        <v>23</v>
+      </c>
+      <c r="K78" s="4"/>
       <c r="L78">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A79" s="3">
-        <v>30780000</v>
+        <v>30290000</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="G79" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>266</v>
+        <v>411</v>
       </c>
       <c r="J79" s="3">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A80" s="5">
-        <v>30800000</v>
+        <v>31010000</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="G80" s="5">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J80" s="5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A81" s="3">
-        <v>30810000</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G81" s="3">
-        <v>13</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="A81" s="5">
+        <v>31130000</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G81" s="5">
+        <v>16</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J81" s="3">
-        <v>24</v>
-      </c>
-      <c r="K81" s="4"/>
+      <c r="I81" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J81" s="5">
+        <v>22</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="L81">
         <v>2019</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A82" s="5">
-        <v>30820000</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G82" s="5">
-        <v>40</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="J82" s="5">
-        <v>16</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="A82" s="3">
+        <v>30120000</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G82" s="3">
+        <v>43</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J82" s="3">
+        <v>21</v>
+      </c>
+      <c r="K82" s="4"/>
       <c r="L82">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A83" s="3">
-        <v>30830000</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G83" s="3">
-        <v>13</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J83" s="3">
-        <v>24</v>
-      </c>
-      <c r="K83" s="4"/>
+      <c r="A83" s="5">
+        <v>30180000</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" s="5">
+        <v>43</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J83" s="5">
+        <v>21</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="L83">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A84" s="5">
-        <v>30840000</v>
+        <v>30250000</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="G84" s="5">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="J84" s="5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A85" s="5">
-        <v>30850000</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G85" s="5">
-        <v>20</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="J85" s="5">
-        <v>20</v>
-      </c>
-      <c r="K85" s="6"/>
+      <c r="A85" s="3">
+        <v>30500000</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G85" s="3">
+        <v>43</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J85" s="3">
+        <v>21</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="L85">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A86" s="3">
-        <v>30860000</v>
+        <v>30560000</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="G86" s="3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="J86" s="3">
-        <v>34</v>
-      </c>
-      <c r="K86" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="L86">
         <v>2020</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A87" s="5">
-        <v>30870000</v>
+        <v>30570000</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="G87" s="5">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J87" s="5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A88" s="3">
-        <v>30880000</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G88" s="3">
-        <v>7</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J88" s="3">
-        <v>25</v>
-      </c>
-      <c r="K88" s="4"/>
+      <c r="A88" s="5">
+        <v>30585000</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" s="5">
+        <v>43</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J88" s="5">
+        <v>21</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="L88">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A89" s="5">
-        <v>30890000</v>
+        <v>30610000</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G89" s="5">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J89" s="5">
-        <v>25</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K89" s="6"/>
       <c r="L89">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A90" s="3">
-        <v>30900000</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G90" s="3">
-        <v>41</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="J90" s="3">
-        <v>13</v>
-      </c>
-      <c r="K90" s="4"/>
+      <c r="A90" s="5">
+        <v>30640000</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G90" s="5">
+        <v>43</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J90" s="5">
+        <v>21</v>
+      </c>
+      <c r="K90" s="6"/>
       <c r="L90">
         <v>2020</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A91" s="3">
-        <v>30910000</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G91" s="3">
-        <v>15</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J91" s="3">
-        <v>39</v>
-      </c>
-      <c r="K91" s="4"/>
+      <c r="A91" s="5">
+        <v>30660000</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G91" s="5">
+        <v>43</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J91" s="5">
+        <v>21</v>
+      </c>
+      <c r="K91" s="6"/>
       <c r="L91">
         <v>2020</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A92" s="5">
-        <v>30920000</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G92" s="5">
-        <v>32</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="J92" s="5">
-        <v>27</v>
-      </c>
-      <c r="K92" s="6"/>
+      <c r="A92" s="3">
+        <v>30670000</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G92" s="3">
+        <v>43</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J92" s="3">
+        <v>21</v>
+      </c>
+      <c r="K92" s="4"/>
       <c r="L92">
         <v>2020</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A93" s="3">
-        <v>30930000</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G93" s="3">
-        <v>42</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J93" s="3">
-        <v>32</v>
-      </c>
-      <c r="K93" s="4"/>
+      <c r="A93" s="5">
+        <v>30720000</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93" s="5">
+        <v>43</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J93" s="5">
+        <v>21</v>
+      </c>
+      <c r="K93" s="6"/>
       <c r="L93">
         <v>2020</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A94" s="5">
-        <v>30940000</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G94" s="5">
-        <v>4</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="J94" s="5">
-        <v>28</v>
-      </c>
-      <c r="K94" s="6"/>
+      <c r="A94" s="3">
+        <v>30760000</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" s="3">
+        <v>43</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J94" s="3">
+        <v>21</v>
+      </c>
+      <c r="K94" s="4"/>
       <c r="L94">
         <v>2020</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A95" s="3">
-        <v>30950000</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G95" s="3">
-        <v>4</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="J95" s="3">
-        <v>28</v>
-      </c>
-      <c r="K95" s="4"/>
+      <c r="A95" s="5">
+        <v>31250000</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" s="5">
+        <v>43</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J95" s="5">
+        <v>21</v>
+      </c>
+      <c r="K95" s="6"/>
       <c r="L95">
         <v>2020</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A96" s="5">
-        <v>30960000</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="G96" s="5">
-        <v>1</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J96" s="5">
-        <v>29</v>
-      </c>
-      <c r="K96" s="6"/>
+      <c r="A96" s="3">
+        <v>31300000</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G96" s="3">
+        <v>43</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J96" s="3">
+        <v>21</v>
+      </c>
+      <c r="K96" s="4"/>
       <c r="L96">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A97" s="5">
-        <v>30970000</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>288</v>
+      <c r="A97" s="3">
+        <v>31320000</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="G97" s="3">
-        <v>18</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="J97" s="5">
-        <v>30</v>
-      </c>
-      <c r="K97" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J97" s="3">
+        <v>21</v>
+      </c>
+      <c r="K97" s="4"/>
       <c r="L97">
         <v>2020</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A98" s="3">
-        <v>30980000</v>
+        <v>30080000</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G98" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J98" s="3">
-        <v>30</v>
-      </c>
-      <c r="K98" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="L98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A99" s="3">
-        <v>30990000</v>
+        <v>30370000</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="G99" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J99" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A100" s="5">
-        <v>31000000</v>
+        <v>30450000</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="G100" s="5">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J100" s="5">
-        <v>32</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K100" s="6"/>
       <c r="L100">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A101" s="5">
-        <v>31010000</v>
+        <v>30850000</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
       <c r="G101" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>410</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="J101" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K101" s="6"/>
       <c r="L101">
@@ -12898,214 +12898,218 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A102" s="3">
-        <v>31020000</v>
+        <v>31070000</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="G102" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="J102" s="3">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A103" s="5">
-        <v>31030000</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G103" s="5">
-        <v>41</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="J103" s="5">
-        <v>13</v>
-      </c>
-      <c r="K103" s="6"/>
+      <c r="A103" s="3">
+        <v>31160000</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G103" s="3">
+        <v>20</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J103" s="3">
+        <v>20</v>
+      </c>
+      <c r="K103" s="4"/>
       <c r="L103">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A104" s="3">
-        <v>31040000</v>
+        <v>30690000</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="G104" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="J104" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A105" s="5">
+        <v>30050000</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G105" s="5">
+        <v>26</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J105" s="5">
+        <v>18</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="L105">
         <v>2019</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A105" s="3">
-        <v>31050000</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G105" s="3">
-        <v>42</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J105" s="3">
-        <v>32</v>
-      </c>
-      <c r="K105" s="4"/>
-      <c r="L105">
-        <v>2020</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A106" s="5">
-        <v>31060000</v>
+        <v>30340000</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="G106" s="5">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="J106" s="5">
-        <v>33</v>
-      </c>
-      <c r="K106" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="L106">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A107" s="3">
-        <v>31070000</v>
+        <v>31240000</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G107" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>410</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J107" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107">
@@ -13113,255 +13117,255 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A108" s="5">
-        <v>31080000</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G108" s="5">
-        <v>39</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J108" s="5">
-        <v>37</v>
-      </c>
-      <c r="K108" s="6"/>
+      <c r="A108" s="3">
+        <v>30380000</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G108" s="3">
+        <v>12</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J108" s="3">
+        <v>17</v>
+      </c>
+      <c r="K108" s="4"/>
       <c r="L108">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A109" s="3">
-        <v>31090000</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G109" s="3">
-        <v>38</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J109" s="3">
-        <v>34</v>
-      </c>
-      <c r="K109" s="4"/>
+      <c r="A109" s="5">
+        <v>30350000</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G109" s="5">
+        <v>40</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J109" s="5">
+        <v>16</v>
+      </c>
+      <c r="K109" s="6"/>
       <c r="L109">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A110" s="5">
-        <v>31100000</v>
+        <v>30820000</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="G110" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J110" s="5">
-        <v>13</v>
-      </c>
-      <c r="K110" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="L110">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A111" s="3">
+        <v>20060000</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G111" s="3">
+        <v>36</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J111" s="3">
+        <v>15</v>
+      </c>
+      <c r="K111" s="4"/>
+      <c r="L111">
         <v>2020</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A111" s="5">
-        <v>31110000</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G111" s="5">
-        <v>1</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J111" s="5">
-        <v>29</v>
-      </c>
-      <c r="K111" s="6"/>
-      <c r="L111">
-        <v>2019</v>
-      </c>
-    </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A112" s="3">
-        <v>31120000</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G112" s="3">
-        <v>23</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J112" s="3">
-        <v>35</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>425</v>
+      <c r="A112" s="5">
+        <v>30110000</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G112" s="5">
+        <v>14</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J112" s="5">
+        <v>14</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="L112">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A113" s="5">
-        <v>31130000</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G113" s="5">
-        <v>16</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="J113" s="5">
-        <v>22</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>426</v>
-      </c>
+      <c r="A113" s="3">
+        <v>30200000</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G113" s="3">
+        <v>14</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J113" s="3">
+        <v>14</v>
+      </c>
+      <c r="K113" s="4"/>
       <c r="L113">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A114" s="3">
-        <v>31140000</v>
+        <v>30240000</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G114" s="5">
-        <v>28</v>
+        <v>278</v>
+      </c>
+      <c r="G114" s="3">
+        <v>41</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J114" s="5">
-        <v>12</v>
+        <v>415</v>
+      </c>
+      <c r="J114" s="3">
+        <v>13</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114">
@@ -13369,325 +13373,323 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A115" s="5">
-        <v>31150000</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G115" s="5">
-        <v>23</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J115" s="5">
-        <v>35</v>
-      </c>
-      <c r="K115" s="6"/>
+      <c r="A115" s="3">
+        <v>30260000</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G115" s="3">
+        <v>41</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J115" s="3">
+        <v>13</v>
+      </c>
+      <c r="K115" s="4"/>
       <c r="L115">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A116" s="3">
-        <v>31160000</v>
+        <v>30530000</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G116" s="3">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J116" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A117" s="5">
-        <v>31170000</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G117" s="5">
+      <c r="A117" s="3">
+        <v>30730000</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G117" s="3">
+        <v>41</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J117" s="3">
         <v>13</v>
       </c>
-      <c r="H117" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="J117" s="5">
-        <v>24</v>
-      </c>
-      <c r="K117" s="6"/>
+      <c r="K117" s="4"/>
       <c r="L117">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A118" s="3">
-        <v>31180000</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G118" s="3">
-        <v>6</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J118" s="3">
-        <v>10</v>
-      </c>
-      <c r="K118" s="4"/>
+      <c r="A118" s="5">
+        <v>30800000</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G118" s="5">
+        <v>41</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J118" s="5">
+        <v>13</v>
+      </c>
+      <c r="K118" s="6"/>
       <c r="L118">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A119" s="5">
-        <v>31190000</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>382</v>
+      <c r="A119" s="3">
+        <v>30900000</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="G119" s="3">
-        <v>28</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="J119" s="5">
-        <v>12</v>
-      </c>
-      <c r="K119" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J119" s="3">
+        <v>13</v>
+      </c>
+      <c r="K119" s="4"/>
       <c r="L119">
         <v>2020</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A120" s="3">
-        <v>31200000</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G120" s="3">
-        <v>39</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J120" s="3">
-        <v>37</v>
-      </c>
-      <c r="K120" s="4"/>
+      <c r="A120" s="5">
+        <v>31030000</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G120" s="5">
+        <v>41</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J120" s="5">
+        <v>13</v>
+      </c>
+      <c r="K120" s="6"/>
       <c r="L120">
         <v>2020</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A121" s="5">
-        <v>31210000</v>
+        <v>31100000</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G121" s="5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J121" s="5">
-        <v>12</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K121" s="6"/>
       <c r="L121">
         <v>2020</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A122" s="3">
-        <v>31220000</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G122" s="3">
-        <v>34</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J122" s="3">
-        <v>36</v>
-      </c>
-      <c r="K122" s="4"/>
+      <c r="A122" s="5">
+        <v>31270000</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G122" s="5">
+        <v>41</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J122" s="5">
+        <v>13</v>
+      </c>
+      <c r="K122" s="6"/>
       <c r="L122">
         <v>2020</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A123" s="5">
-        <v>31230000</v>
+        <v>30220000</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="G123" s="5">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>407</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J123" s="5">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K123" s="6"/>
       <c r="L123">
@@ -13695,107 +13697,107 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A124" s="3">
-        <v>31240000</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G124" s="3">
-        <v>26</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="J124" s="3">
-        <v>18</v>
-      </c>
-      <c r="K124" s="4"/>
+      <c r="A124" s="5">
+        <v>30410000</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G124" s="5">
+        <v>28</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J124" s="5">
+        <v>12</v>
+      </c>
+      <c r="K124" s="6"/>
       <c r="L124">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A125" s="5">
-        <v>31250000</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G125" s="5">
-        <v>43</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>346</v>
+      <c r="A125" s="3">
+        <v>30480000</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G125" s="3">
+        <v>28</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="J125" s="5">
-        <v>21</v>
-      </c>
-      <c r="K125" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="K125" s="4"/>
       <c r="L125">
         <v>2020</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A126" s="3">
-        <v>31260000</v>
+        <v>30710000</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G126" s="3">
-        <v>39</v>
+        <v>345</v>
+      </c>
+      <c r="G126" s="5">
+        <v>28</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J126" s="3">
-        <v>37</v>
+        <v>418</v>
+      </c>
+      <c r="J126" s="5">
+        <v>12</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126">
@@ -13803,145 +13805,145 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A127" s="5">
-        <v>31270000</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>390</v>
+      <c r="A127" s="3">
+        <v>31140000</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="G127" s="5">
-        <v>41</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>415</v>
+        <v>28</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="J127" s="5">
-        <v>13</v>
-      </c>
-      <c r="K127" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="K127" s="4"/>
       <c r="L127">
         <v>2020</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A128" s="12">
-        <v>31280000</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>391</v>
+      <c r="A128" s="10">
+        <v>31190000</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="G128" s="12">
-        <v>42</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J128" s="12">
-        <v>32</v>
-      </c>
-      <c r="K128" s="13" t="s">
-        <v>425</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="J128" s="10">
+        <v>12</v>
+      </c>
+      <c r="K128" s="11"/>
       <c r="L128">
         <v>2020</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A129" s="10">
-        <v>31290000</v>
+        <v>31210000</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G129" s="10">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>407</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J129" s="10">
-        <v>31</v>
-      </c>
-      <c r="K129" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="L129">
         <v>2020</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A130" s="12">
-        <v>31300000</v>
+        <v>30100000</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="G130" s="12">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>407</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="J130" s="12">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K130" s="13"/>
       <c r="L130">
@@ -13950,34 +13952,34 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A131" s="10">
-        <v>31310000</v>
+        <v>30030000</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="G131" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>410</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="J131" s="10">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131">
@@ -13986,106 +13988,108 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A132" s="12">
-        <v>31320000</v>
+        <v>30040000</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="G132" s="12">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="J132" s="12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K132" s="13"/>
       <c r="L132">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A133" s="10">
-        <v>31330000</v>
+        <v>30320000</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>258</v>
+        <v>62</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="G133" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>410</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="J133" s="10">
-        <v>23</v>
-      </c>
-      <c r="K133" s="11"/>
+        <v>295</v>
+      </c>
+      <c r="J133" s="12">
+        <v>10</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="L133">
         <v>2019</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A134" s="12">
-        <v>31340000</v>
+        <v>31180000</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G134" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>410</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>412</v>
+        <v>295</v>
       </c>
       <c r="J134" s="12">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K134" s="13"/>
       <c r="L134">
@@ -14093,39 +14097,35 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A135" s="10">
-        <v>31350000</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G135" s="10">
-        <v>15</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J135" s="10">
-        <v>39</v>
-      </c>
+      <c r="A135" s="12">
+        <v>30210000</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J135" s="12"/>
       <c r="K135" s="11"/>
       <c r="L135">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -14140,7 +14140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B12325B-802E-4224-8A64-7544FE6D3D77}">
   <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="L23" zoomScale="63" workbookViewId="0">
+    <sheetView topLeftCell="L2" zoomScale="63" workbookViewId="0">
       <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
@@ -19612,7 +19612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0CAC8E-01F2-4C07-820A-9300B90359BA}">
   <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="46" workbookViewId="0">
       <selection activeCell="B29" sqref="B4:B34"/>
     </sheetView>
   </sheetViews>
@@ -19987,8 +19987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13708FBC-0B91-46E5-AEFC-942007A5A68A}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.8"/>
@@ -20035,1130 +20035,1130 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A2">
-        <v>250484</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+        <v>250503</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
+      <c r="E2" t="s">
+        <v>446</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H2">
-        <v>1006173334</v>
+        <v>254662</v>
       </c>
       <c r="I2">
-        <v>126973</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A3">
-        <v>250522</v>
+        <v>250499</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>446</v>
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>2007003287</v>
       </c>
       <c r="D3" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>585</v>
+        <v>502</v>
       </c>
       <c r="G3" t="s">
-        <v>586</v>
+        <v>503</v>
       </c>
       <c r="H3">
-        <v>108744824</v>
+        <v>1434188792</v>
       </c>
       <c r="I3">
-        <v>45567</v>
+        <v>380434</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A4">
-        <v>250485</v>
+        <v>250494</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" t="s">
-        <v>446</v>
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>2011000150</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="G4" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="H4">
-        <v>1300305077</v>
+        <v>1034145514</v>
       </c>
       <c r="I4">
-        <v>145348</v>
+        <v>135612</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A5">
-        <v>250486</v>
+        <v>250507</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
       <c r="C5">
         <v>2007001374</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="G5" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="H5">
-        <v>1055138598</v>
+        <v>1018448390</v>
       </c>
       <c r="I5">
-        <v>133106</v>
+        <v>131160</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A6">
-        <v>250487</v>
+        <v>250486</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>446</v>
+        <v>454</v>
+      </c>
+      <c r="C6">
+        <v>2007001374</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H6">
-        <v>129320235</v>
+        <v>1055138598</v>
       </c>
       <c r="I6">
-        <v>69713</v>
+        <v>133106</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A7">
-        <v>250488</v>
+        <v>250489</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" t="s">
-        <v>446</v>
+        <v>465</v>
+      </c>
+      <c r="C7">
+        <v>2007003287</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H7">
-        <v>163763691</v>
+        <v>779323497</v>
       </c>
       <c r="I7">
-        <v>58663</v>
+        <v>124408</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A8">
-        <v>250489</v>
+        <v>250512</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="C8">
-        <v>2007003287</v>
+        <v>2013000835</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="G8" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
       <c r="H8">
-        <v>779323497</v>
+        <v>1324701108</v>
       </c>
       <c r="I8">
-        <v>124408</v>
+        <v>155908</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A9">
-        <v>250490</v>
+        <v>250516</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>560</v>
       </c>
       <c r="C9" t="s">
         <v>446</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="G9" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="H9">
-        <v>219344054</v>
+        <v>1689232192</v>
       </c>
       <c r="I9">
-        <v>78227</v>
+        <v>272406</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A10">
-        <v>250491</v>
+        <v>250509</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
         <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="G10" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="H10">
-        <v>936752533</v>
+        <v>112747114</v>
       </c>
       <c r="I10">
-        <v>122714</v>
+        <v>42521</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A11">
-        <v>250515</v>
+        <v>250488</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
-      </c>
-      <c r="C11">
-        <v>2013000835</v>
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>446</v>
       </c>
       <c r="D11" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="G11" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="H11">
-        <v>1406645617</v>
+        <v>163763691</v>
       </c>
       <c r="I11">
-        <v>194388</v>
+        <v>58663</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A12">
-        <v>250499</v>
+        <v>250522</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12">
-        <v>2007003287</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>584</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>502</v>
+        <v>585</v>
       </c>
       <c r="G12" t="s">
-        <v>503</v>
+        <v>586</v>
       </c>
       <c r="H12">
-        <v>1434188792</v>
+        <v>108744824</v>
       </c>
       <c r="I12">
-        <v>380434</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A13">
-        <v>250516</v>
+        <v>250511</v>
       </c>
       <c r="B13" t="s">
-        <v>560</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
         <v>446</v>
       </c>
       <c r="D13" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="G13" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="H13">
-        <v>1689232192</v>
+        <v>353933195</v>
       </c>
       <c r="I13">
-        <v>272406</v>
+        <v>114506</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A14">
-        <v>250517</v>
+        <v>250501</v>
       </c>
       <c r="B14" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="C14" t="s">
         <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="G14" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="H14">
-        <v>331383731</v>
+        <v>130997296</v>
       </c>
       <c r="I14">
-        <v>93995</v>
+        <v>48377</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A15">
-        <v>250492</v>
+        <v>250521</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>580</v>
       </c>
       <c r="C15" t="s">
         <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>581</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>477</v>
+        <v>582</v>
       </c>
       <c r="G15" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="H15">
-        <v>587046985</v>
+        <v>988837201</v>
       </c>
       <c r="I15">
-        <v>111002</v>
+        <v>148101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A16">
-        <v>250493</v>
+        <v>250520</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>576</v>
       </c>
       <c r="C16" t="s">
         <v>446</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
       <c r="G16" t="s">
-        <v>482</v>
+        <v>579</v>
       </c>
       <c r="H16">
-        <v>549545953</v>
+        <v>299927960</v>
       </c>
       <c r="I16">
-        <v>181485</v>
+        <v>114747</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A17">
-        <v>250494</v>
+        <v>250485</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17">
-        <v>2011000150</v>
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="G17" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="H17">
-        <v>1034145514</v>
+        <v>1300305077</v>
       </c>
       <c r="I17">
-        <v>135612</v>
+        <v>145348</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A18">
-        <v>250495</v>
+        <v>250518</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>568</v>
       </c>
       <c r="C18" t="s">
         <v>446</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
+        <v>569</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="G18" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="H18">
-        <v>729665110</v>
+        <v>126739747</v>
       </c>
       <c r="I18">
-        <v>124266</v>
+        <v>68014</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A19">
-        <v>250496</v>
+        <v>250491</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
         <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="G19" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="H19">
-        <v>451422310</v>
+        <v>936752533</v>
       </c>
       <c r="I19">
-        <v>119786</v>
+        <v>122714</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A20">
-        <v>250497</v>
+        <v>250492</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="G20" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="H20">
-        <v>592749199</v>
+        <v>587046985</v>
       </c>
       <c r="I20">
-        <v>117312</v>
+        <v>111002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A21">
-        <v>250518</v>
+        <v>250517</v>
       </c>
       <c r="B21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C21" t="s">
         <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E21">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G21" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H21">
-        <v>126739747</v>
+        <v>331383731</v>
       </c>
       <c r="I21">
-        <v>68014</v>
+        <v>93995</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A22">
-        <v>250498</v>
+        <v>250510</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22">
-        <v>2016000861</v>
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="G22" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="H22">
-        <v>965761484</v>
+        <v>862464766</v>
       </c>
       <c r="I22">
-        <v>126948</v>
+        <v>117658</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A23">
-        <v>250500</v>
+        <v>250493</v>
       </c>
       <c r="B23" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C23" t="s">
         <v>446</v>
       </c>
       <c r="D23" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="G23" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="H23">
-        <v>103525518</v>
+        <v>549545953</v>
       </c>
       <c r="I23">
-        <v>78400</v>
+        <v>181485</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A24">
-        <v>250501</v>
+        <v>250505</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C24" t="s">
         <v>446</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="G24" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H24">
-        <v>130997296</v>
+        <v>982492835</v>
       </c>
       <c r="I24">
-        <v>48377</v>
+        <v>125021</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A25">
-        <v>250502</v>
+        <v>250508</v>
       </c>
       <c r="B25" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="C25" t="s">
         <v>446</v>
       </c>
       <c r="D25" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="G25" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="H25">
-        <v>1014359496</v>
+        <v>69176968</v>
       </c>
       <c r="I25">
-        <v>127425</v>
+        <v>36308</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A26">
-        <v>250504</v>
+        <v>250495</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
         <v>446</v>
       </c>
       <c r="D26" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="G26" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="H26">
-        <v>1006207078</v>
+        <v>729665110</v>
       </c>
       <c r="I26">
-        <v>126888</v>
+        <v>124266</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A27">
-        <v>250505</v>
+        <v>250514</v>
       </c>
       <c r="B27" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
         <v>446</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="G27" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="H27">
-        <v>982492835</v>
+        <v>896275816</v>
       </c>
       <c r="I27">
-        <v>125021</v>
+        <v>178137</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A28">
-        <v>250506</v>
+        <v>250487</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="C28" t="s">
         <v>446</v>
       </c>
       <c r="D28" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="G28" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="H28">
-        <v>828299094</v>
+        <v>129320235</v>
       </c>
       <c r="I28">
-        <v>136999</v>
+        <v>69713</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A29">
-        <v>250507</v>
+        <v>250497</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29">
-        <v>2007001374</v>
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>446</v>
       </c>
       <c r="D29" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="G29" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="H29">
-        <v>1018448390</v>
+        <v>592749199</v>
       </c>
       <c r="I29">
-        <v>131160</v>
+        <v>117312</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A30">
-        <v>250508</v>
+        <v>250490</v>
       </c>
       <c r="B30" t="s">
-        <v>533</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>446</v>
       </c>
       <c r="D30" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="H30">
-        <v>69176968</v>
+        <v>219344054</v>
       </c>
       <c r="I30">
-        <v>36308</v>
+        <v>78227</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A31">
-        <v>250509</v>
+        <v>250515</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" t="s">
-        <v>446</v>
+        <v>556</v>
+      </c>
+      <c r="C31">
+        <v>2013000835</v>
       </c>
       <c r="D31" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="E31">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="G31" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="H31">
-        <v>112747114</v>
+        <v>1406645617</v>
       </c>
       <c r="I31">
-        <v>42521</v>
+        <v>194388</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A32">
-        <v>250519</v>
+        <v>250500</v>
       </c>
       <c r="B32" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
         <v>446</v>
       </c>
       <c r="D32" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="G32" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="H32">
-        <v>110965961</v>
+        <v>103525518</v>
       </c>
       <c r="I32">
-        <v>49059</v>
+        <v>78400</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A33">
-        <v>250510</v>
+        <v>250496</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>490</v>
       </c>
       <c r="C33" t="s">
         <v>446</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="E33">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="G33" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="H33">
-        <v>862464766</v>
+        <v>451422310</v>
       </c>
       <c r="I33">
-        <v>117658</v>
+        <v>119786</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A34">
-        <v>250520</v>
+        <v>250498</v>
       </c>
       <c r="B34" t="s">
-        <v>576</v>
-      </c>
-      <c r="C34" t="s">
-        <v>446</v>
+        <v>170</v>
+      </c>
+      <c r="C34">
+        <v>2016000861</v>
       </c>
       <c r="D34" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="E34">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>578</v>
+        <v>498</v>
       </c>
       <c r="G34" t="s">
-        <v>579</v>
+        <v>499</v>
       </c>
       <c r="H34">
-        <v>299927960</v>
+        <v>965761484</v>
       </c>
       <c r="I34">
-        <v>114747</v>
+        <v>126948</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A35">
-        <v>250511</v>
+        <v>250484</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>446</v>
       </c>
       <c r="D35" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>544</v>
+        <v>448</v>
       </c>
       <c r="G35" t="s">
-        <v>545</v>
+        <v>449</v>
       </c>
       <c r="H35">
-        <v>353933195</v>
+        <v>1006173334</v>
       </c>
       <c r="I35">
-        <v>114506</v>
+        <v>126973</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A36">
-        <v>250512</v>
+        <v>250519</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36">
-        <v>2013000835</v>
+        <v>572</v>
+      </c>
+      <c r="C36" t="s">
+        <v>446</v>
       </c>
       <c r="D36" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="E36">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="G36" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="H36">
-        <v>1324701108</v>
+        <v>110965961</v>
       </c>
       <c r="I36">
-        <v>155908</v>
+        <v>49059</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A37">
-        <v>250521</v>
+        <v>250502</v>
       </c>
       <c r="B37" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="C37" t="s">
         <v>446</v>
       </c>
       <c r="D37" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="G37" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="H37">
-        <v>988837201</v>
+        <v>1014359496</v>
       </c>
       <c r="I37">
-        <v>148101</v>
+        <v>127425</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A38">
-        <v>250513</v>
+        <v>250506</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>525</v>
       </c>
       <c r="C38" t="s">
         <v>446</v>
       </c>
       <c r="D38" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="G38" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="H38">
-        <v>1005327426</v>
+        <v>828299094</v>
       </c>
       <c r="I38">
-        <v>126830</v>
+        <v>136999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A39">
-        <v>250514</v>
+        <v>250513</v>
       </c>
       <c r="B39" t="s">
-        <v>552</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
         <v>446</v>
       </c>
       <c r="D39" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G39" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H39">
-        <v>896275816</v>
+        <v>1005327426</v>
       </c>
       <c r="I39">
-        <v>178137</v>
+        <v>126830</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A40">
-        <v>250503</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+        <v>250504</v>
+      </c>
+      <c r="B40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" t="s">
+        <v>446</v>
       </c>
       <c r="D40" t="s">
-        <v>446</v>
-      </c>
-      <c r="E40" t="s">
-        <v>446</v>
+        <v>518</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G40" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H40">
-        <v>254662</v>
+        <v>1006207078</v>
       </c>
       <c r="I40">
-        <v>2058</v>
+        <v>126888</v>
       </c>
     </row>
   </sheetData>

--- a/Necessary_Files/muni_shortnames.xlsx
+++ b/Necessary_Files/muni_shortnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\ptax\Necessary_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D53708-1436-4F7E-B64C-928AC62231D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAED0BA-BB7C-4A65-92F7-BBBF09A3F27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="9030" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{E04B2839-4174-4D46-99FA-03AE29BCB57B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E04B2839-4174-4D46-99FA-03AE29BCB57B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1864,7 +1864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1916,11 +1916,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1937,12 +1946,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -2310,7 +2320,13 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2319,12 +2335,16 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2333,12 +2353,16 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2347,12 +2371,16 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2361,12 +2389,16 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2375,8 +2407,43 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2385,6 +2452,14 @@
           <color theme="4" tint="0.39997558519241921"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5696,17 +5771,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D179A9D4-42CB-495B-8B63-9C6B4EB0A0D5}" name="Table1" displayName="Table1" ref="A1:E135" totalsRowShown="0" headerRowDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="A1:E135" xr:uid="{D179A9D4-42CB-495B-8B63-9C6B4EB0A0D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E135">
-    <sortCondition ref="A1:A135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D179A9D4-42CB-495B-8B63-9C6B4EB0A0D5}" name="Table1" displayName="Table1" ref="A1:G135" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A1:G135" xr:uid="{D179A9D4-42CB-495B-8B63-9C6B4EB0A0D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F135">
+    <sortCondition ref="B1:B135"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1F9C6787-AF3E-42F8-88E4-235AC1C1596A}" name="agency_number" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{6683F83A-27AA-4C73-8EA3-37CB28F7EE6C}" name="agency_name" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{8CA706FA-B778-4359-AA83-9B733DBD6530}" name="clean_name" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{CE881981-CE3C-4963-98DD-50D452D4C1BA}" name="Triad" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{0D872AF7-A538-48C8-BDC8-6BFDCB709A1B}" name="Township" dataDxfId="26"/>
+  <tableColumns count="7">
+    <tableColumn id="3" xr3:uid="{3C54D679-719C-4642-8295-74E3C545D08C}" name="short_name" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{1F9C6787-AF3E-42F8-88E4-235AC1C1596A}" name="agency_number" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{6683F83A-27AA-4C73-8EA3-37CB28F7EE6C}" name="agency_name" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{8CA706FA-B778-4359-AA83-9B733DBD6530}" name="clean_name" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{CE881981-CE3C-4963-98DD-50D452D4C1BA}" name="Triad" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{0D872AF7-A538-48C8-BDC8-6BFDCB709A1B}" name="Township" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E3D2D05E-B6DC-41A0-94A4-1D6D02A852E5}" name="shpfile_name" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6094,3118 +6171,3119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B4136-5499-4584-8CDE-B5921A95B643}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
-    <col min="2" max="2" width="12.9296875" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A2" s="3">
+      <c r="A2" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="5">
         <v>20060000</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A3" s="5">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>30010000</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E3" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A4" s="3">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>30020000</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A5" s="5">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
         <v>30030000</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A6" s="3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
         <v>30040000</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A7" s="5">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
         <v>30050000</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A8" s="3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
         <v>30060000</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A9" s="5">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
         <v>30070000</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A10" s="3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
         <v>30080000</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A11" s="5">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
         <v>30090000</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A12" s="3">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
         <v>30100000</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A13" s="5">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
         <v>30110000</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E13" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A14" s="3">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5">
         <v>30120000</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A15" s="5">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5">
         <v>30130000</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E15" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A16" s="3">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
         <v>30140000</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A17" s="5">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
         <v>30150000</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A18" s="3">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5">
         <v>30160000</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A19" s="3">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
         <v>30170000</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A20" s="5">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5">
         <v>30180000</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E20" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A21" s="5">
+      <c r="A21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
         <v>30190000</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E21" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A22" s="3">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5">
         <v>30200000</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A23" s="3">
+      <c r="A23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5">
         <v>30210000</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A24" s="5">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5">
         <v>30220000</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E24" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A25" s="5">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5">
         <v>30230000</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E25" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A26" s="3">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5">
         <v>30240000</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A27" s="5">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5">
         <v>30250000</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E27" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A28" s="3">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5">
         <v>30260000</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A29" s="5">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5">
         <v>30270000</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A30" s="3">
+      <c r="A30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="5">
         <v>30280000</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A31" s="3">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5">
         <v>30290000</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A32" s="5">
+      <c r="A32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="5">
         <v>30300000</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E32" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A33" s="3">
+      <c r="A33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="5">
         <v>30310000</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A34" s="5">
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5">
         <v>30320000</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A35" s="3">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="5">
         <v>30330000</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A36" s="5">
+      <c r="A36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="5">
         <v>30340000</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A37" s="5">
+      <c r="A37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="5">
         <v>30350000</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A38" s="3">
+      <c r="A38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="5">
         <v>30370000</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A39" s="3">
+      <c r="A39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5">
         <v>30380000</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A40" s="5">
+      <c r="A40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="5">
         <v>30390000</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E40" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A41" s="3">
+      <c r="A41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5">
         <v>30400000</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A42" s="5">
+      <c r="A42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5">
         <v>30410000</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E42" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A43" s="3">
+      <c r="A43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5">
         <v>30420000</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="5" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A44" s="5">
+      <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="5">
         <v>30430000</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E44" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A45" s="3">
+      <c r="A45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="5">
         <v>30440000</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A46" s="5">
+      <c r="A46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="5">
         <v>30450000</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A47" s="3">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="5">
         <v>30460000</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A48" s="5">
+      <c r="A48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="5">
         <v>30470000</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A49" s="3">
+      <c r="A49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="5">
         <v>30480000</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A50" s="5">
+      <c r="A50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="5">
         <v>30490000</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A51" s="3">
+      <c r="A51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="5">
         <v>30500000</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A52" s="5">
+      <c r="A52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="5">
         <v>30510000</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E52" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A53" s="5">
+      <c r="A53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="5">
         <v>30520000</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A54" s="3">
+      <c r="A54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="5">
         <v>30530000</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A55" s="3">
+      <c r="A55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="5">
         <v>30540000</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A56" s="5">
+      <c r="A56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="5">
         <v>30550000</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E56" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A57" s="3">
+      <c r="A57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="5">
         <v>30560000</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A58" s="5">
+      <c r="A58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="5">
         <v>30570000</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E58" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A59" s="3">
+      <c r="A59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="5">
         <v>30580000</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A60" s="5">
+      <c r="A60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="5">
         <v>30585000</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E60" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A61" s="5">
+      <c r="A61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="5">
         <v>30590000</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E61" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A62" s="3">
+      <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="5">
         <v>30600000</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A63" s="5">
+      <c r="A63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="5">
         <v>30610000</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E63" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A64" s="3">
+      <c r="A64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="5">
         <v>30630000</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A65" s="5">
+      <c r="A65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="5">
         <v>30640000</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E65" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A66" s="3">
+      <c r="A66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="5">
         <v>30650000</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A67" s="5">
+      <c r="A67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="5">
         <v>30660000</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E67" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A68" s="3">
+      <c r="A68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="5">
         <v>30670000</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A69" s="5">
+      <c r="A69" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="5">
         <v>30680000</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E69" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A70" s="3">
+      <c r="A70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="5">
         <v>30690000</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A71" s="5">
+      <c r="A71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="5">
         <v>30700000</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A72" s="3">
+      <c r="A72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="5">
         <v>30710000</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A73" s="5">
+      <c r="A73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="5">
         <v>30720000</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E73" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A74" s="3">
+      <c r="A74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="5">
         <v>30730000</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A75" s="3">
+      <c r="A75" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="5">
         <v>30740000</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A76" s="5">
+      <c r="A76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="5">
         <v>30750000</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E76" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A77" s="3">
+      <c r="A77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="5">
         <v>30760000</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A78" s="5">
+      <c r="A78" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="5">
         <v>30770000</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E78" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A79" s="3">
+      <c r="A79" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="5">
         <v>30780000</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="5" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A80" s="5">
+      <c r="A80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="5">
         <v>30800000</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E80" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A81" s="3">
+      <c r="A81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="5">
         <v>30810000</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="5" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A82" s="5">
+      <c r="A82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="5">
         <v>30820000</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="F82" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A83" s="3">
+      <c r="A83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="5">
         <v>30830000</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A84" s="5">
+      <c r="A84" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="5">
         <v>30840000</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A85" s="5">
+      <c r="A85" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="5">
         <v>30850000</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A86" s="3">
+      <c r="A86" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="5">
         <v>30860000</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="5" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A87" s="5">
+      <c r="A87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="5">
         <v>30870000</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A88" s="3">
+      <c r="A88" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="5">
         <v>30880000</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="5" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A89" s="5">
+      <c r="A89" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="5">
         <v>30890000</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A90" s="3">
+      <c r="A90" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="5">
         <v>30900000</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A91" s="3">
+      <c r="A91" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="5">
         <v>30910000</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="5" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A92" s="5">
+      <c r="A92" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="5">
         <v>30920000</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E92" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A93" s="3">
+      <c r="A93" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="5">
         <v>30930000</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A94" s="5">
+      <c r="A94" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="5">
         <v>30940000</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E94" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A95" s="3">
+      <c r="A95" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="5">
         <v>30950000</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="5" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A96" s="5">
+      <c r="A96" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="5">
         <v>30960000</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="F96" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A97" s="5">
+      <c r="A97" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="5">
         <v>30970000</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E97" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A98" s="3">
+      <c r="A98" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="5">
         <v>30980000</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A99" s="3">
+      <c r="A99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="5">
         <v>30990000</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A100" s="5">
+      <c r="A100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="5">
         <v>31000000</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E100" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A101" s="5">
+      <c r="A101" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="5">
         <v>31010000</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A102" s="3">
+      <c r="A102" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102" s="5">
         <v>31020000</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A103" s="5">
+      <c r="A103" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="5">
         <v>31030000</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E103" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A104" s="3">
+      <c r="A104" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="5">
         <v>31040000</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="F104" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A105" s="3">
+      <c r="A105" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="5">
         <v>31050000</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A106" s="5">
+      <c r="A106" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="5">
         <v>31060000</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E106" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A107" s="3">
+      <c r="A107" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="5">
         <v>31070000</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A108" s="5">
+      <c r="A108" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="5">
         <v>31080000</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E108" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A109" s="3">
+      <c r="A109" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="5">
         <v>31090000</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A110" s="5">
+      <c r="A110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="5">
         <v>31100000</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E110" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A111" s="5">
+      <c r="A111" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="5">
         <v>31110000</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="F111" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A112" s="3">
+      <c r="A112" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="5">
         <v>31120000</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A113" s="5">
+      <c r="A113" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="5">
         <v>31130000</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="F113" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A114" s="3">
+      <c r="A114" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="5">
         <v>31140000</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A115" s="5">
+      <c r="A115" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="5">
         <v>31150000</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A116" s="3">
+      <c r="A116" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="5">
         <v>31160000</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="E116" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="5" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A117" s="5">
+      <c r="A117" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="5">
         <v>31170000</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A118" s="3">
+      <c r="A118" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="5">
         <v>31180000</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="F118" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="5" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A119" s="5">
+      <c r="A119" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="5">
         <v>31190000</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E119" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A120" s="3">
+      <c r="A120" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="5">
         <v>31200000</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A121" s="5">
+      <c r="A121" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="5">
         <v>31210000</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E121" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A122" s="3">
+      <c r="A122" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="5">
         <v>31220000</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A123" s="5">
+      <c r="A123" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="5">
         <v>31230000</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E123" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A124" s="3">
+      <c r="A124" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="5">
         <v>31240000</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A125" s="5">
+      <c r="A125" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="5">
         <v>31250000</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E125" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A126" s="3">
+      <c r="A126" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="5">
         <v>31260000</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A127" s="5">
+      <c r="A127" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="5">
         <v>31270000</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E127" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A128" s="12">
+      <c r="A128" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="10">
         <v>31280000</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="C128" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="D128" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D128" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F128" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="F128" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G128" s="12" t="s">
+      <c r="G128" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A129" s="10">
+      <c r="A129" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="10">
         <v>31290000</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="D129" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>407</v>
-      </c>
       <c r="E129" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F129" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A130" s="12">
+      <c r="A130" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="10">
         <v>31300000</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="C130" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="D130" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D130" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F130" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F130" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G130" s="12" t="s">
+      <c r="G130" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A131" s="10">
+      <c r="A131" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="10">
         <v>31310000</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="F131" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F131" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A132" s="12">
+      <c r="A132" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="10">
         <v>31320000</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="C132" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="D132" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F132" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F132" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A133" s="10">
+      <c r="A133" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="10">
         <v>31330000</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="D133" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="E133" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="F133" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="F133" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G133" s="10" t="s">
+      <c r="G133" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A134" s="12">
+      <c r="A134" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="10">
         <v>31340000</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="C134" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="E134" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="F134" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="F134" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="5" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A135" s="10">
+      <c r="A135" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B135" s="10">
         <v>31350000</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>407</v>
-      </c>
       <c r="E135" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>266</v>
@@ -19987,8 +20065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13708FBC-0B91-46E5-AEFC-942007A5A68A}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A23" zoomScale="59" workbookViewId="0">
+      <selection activeCell="B38" sqref="A38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.8"/>
